--- a/out/contributions.xlsx
+++ b/out/contributions.xlsx
@@ -7,8 +7,8 @@
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="econ" sheetId="6" state="visible" r:id="rId2"/>
-    <sheet name="econ_total" sheetId="7" state="visible" r:id="rId3"/>
+    <sheet name="econ" sheetId="8" state="visible" r:id="rId2"/>
+    <sheet name="econ_total" sheetId="9" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
